--- a/PRD-2017-G24/STW/受控文件/分析设计/需求工程计划/用户群分类.xlsx
+++ b/PRD-2017-G24/STW/受控文件/分析设计/需求工程计划/用户群分类.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="49">
   <si>
     <t>学生</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -150,15 +150,76 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>教师/大牛</t>
+    <t>教师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>访客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开课教师，在自己课程内拥有更多权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网站管理员，有最大权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册教师在自己课程外活动时扮演的普通注
+册用户角色，身份还是老师，权限普通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包括大一到大四及毕业生，权限普通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师和学生以外的人员，权限普通，关注度低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只能浏览首页，其他操作都要先注册登陆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,6 +229,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -194,13 +264,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -220,7 +303,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -295,6 +378,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -330,6 +430,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -506,27 +623,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="33.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.375" customWidth="1"/>
-    <col min="5" max="5" width="9.5" customWidth="1"/>
-    <col min="6" max="6" width="24.25" customWidth="1"/>
-    <col min="7" max="7" width="29.25" customWidth="1"/>
-    <col min="8" max="8" width="12.75" customWidth="1"/>
-    <col min="9" max="9" width="10.5" customWidth="1"/>
-    <col min="10" max="10" width="20.75" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="42" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" customWidth="1"/>
+    <col min="6" max="6" width="24.21875" customWidth="1"/>
+    <col min="7" max="7" width="29.21875" customWidth="1"/>
+    <col min="8" max="8" width="12.77734375" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" customWidth="1"/>
+    <col min="10" max="10" width="20.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -558,7 +675,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>33</v>
       </c>
@@ -588,7 +705,7 @@
       </c>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -618,7 +735,7 @@
       </c>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -648,7 +765,7 @@
       </c>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -678,9 +795,84 @@
       </c>
       <c r="J5" s="1"/>
     </row>
+    <row r="9" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="A9:C9"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/PRD-2017-G24/STW/受控文件/分析设计/需求工程计划/用户群分类.xlsx
+++ b/PRD-2017-G24/STW/受控文件/分析设计/需求工程计划/用户群分类.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="4620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="44">
   <si>
     <t>用户类</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -194,57 +194,6 @@
   <si>
     <t>不重要用户</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>学校选课系统管理员</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>学校人员信息系统管理员</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口交互</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>作为课程学生名单的信息源，权限极低</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>作为学校人员信息资源的信息源，权限极低</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>提供选课信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>提供老师，学生个人信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>提供接口</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>每学期一次</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>每年一次</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>专业</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务器</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>关键用户</t>
   </si>
 </sst>
 </file>
@@ -657,7 +606,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -916,72 +865,16 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="55.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>44</v>
-      </c>
+      <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
-      <c r="D8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H8" t="s">
-        <v>54</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J8" t="s">
-        <v>39</v>
-      </c>
-      <c r="K8" t="s">
-        <v>46</v>
-      </c>
-      <c r="L8" t="s">
-        <v>56</v>
-      </c>
+      <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:12" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>45</v>
-      </c>
+      <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
-      <c r="D9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" t="s">
-        <v>53</v>
-      </c>
-      <c r="H9" t="s">
-        <v>54</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K9" t="s">
-        <v>46</v>
-      </c>
-      <c r="L9" t="s">
-        <v>56</v>
-      </c>
+      <c r="I9" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/PRD-2017-G24/STW/受控文件/分析设计/需求工程计划/用户群分类.xlsx
+++ b/PRD-2017-G24/STW/受控文件/分析设计/需求工程计划/用户群分类.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9015"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
   <si>
     <t>用户类</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -46,10 +46,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>访客</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>游客</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -158,16 +154,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>较为专业</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>未知</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>参差不齐，
-大多为较为专业</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -188,18 +175,18 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>次要用户</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>不重要用户</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>较为专业</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -245,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -264,6 +251,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -325,7 +315,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -358,26 +348,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -410,23 +383,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -606,57 +562,57 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="L5" sqref="L5:L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" customWidth="1"/>
-    <col min="5" max="5" width="21.109375" customWidth="1"/>
-    <col min="6" max="6" width="29.109375" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" customWidth="1"/>
-    <col min="9" max="9" width="15.88671875" customWidth="1"/>
+    <col min="4" max="4" width="30.625" customWidth="1"/>
+    <col min="5" max="5" width="21.125" customWidth="1"/>
+    <col min="6" max="6" width="29.125" customWidth="1"/>
+    <col min="8" max="8" width="14.5" customWidth="1"/>
+    <col min="9" max="9" width="15.875" customWidth="1"/>
     <col min="10" max="10" width="9" customWidth="1"/>
-    <col min="11" max="11" width="10.77734375" customWidth="1"/>
-    <col min="12" max="12" width="39.109375" customWidth="1"/>
+    <col min="11" max="11" width="10.75" customWidth="1"/>
+    <col min="12" max="12" width="39.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="2" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -665,68 +621,68 @@
       </c>
       <c r="C2" s="4"/>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" t="s">
         <v>38</v>
       </c>
-      <c r="J2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L2" t="s">
-        <v>41</v>
-      </c>
     </row>
-    <row r="3" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="6"/>
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" t="s">
         <v>38</v>
       </c>
-      <c r="J3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" t="s">
-        <v>41</v>
-      </c>
     </row>
-    <row r="4" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="6"/>
       <c r="B4" s="6" t="s">
         <v>4</v>
@@ -735,149 +691,138 @@
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>41</v>
-      </c>
     </row>
-    <row r="5" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="D5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="J5" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5" t="s">
-        <v>40</v>
-      </c>
-      <c r="L5" t="s">
-        <v>41</v>
-      </c>
     </row>
-    <row r="6" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K6" t="s">
-        <v>40</v>
-      </c>
-      <c r="L6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>8</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" t="s">
         <v>39</v>
       </c>
-      <c r="K7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L7" t="s">
-        <v>43</v>
-      </c>
     </row>
-    <row r="8" spans="1:12" ht="55.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="55.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:12" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="40.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="I9" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="18">
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A7:C7"/>
@@ -886,6 +831,7 @@
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
+    <mergeCell ref="C5:C6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -899,7 +845,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -912,7 +858,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
